--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Siglec1-Spn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Siglec1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3044395</v>
+        <v>0.1804155</v>
       </c>
       <c r="H2">
-        <v>0.6088789999999999</v>
+        <v>0.360831</v>
       </c>
       <c r="I2">
-        <v>0.001820844915993209</v>
+        <v>0.001449671343453619</v>
       </c>
       <c r="J2">
-        <v>0.001214730854269235</v>
+        <v>0.0009679009286790942</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307929333333333</v>
+        <v>2.019968666666667</v>
       </c>
       <c r="N2">
-        <v>3.923788</v>
+        <v>6.059906</v>
       </c>
       <c r="O2">
-        <v>0.2442423934209346</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="P2">
-        <v>0.2442423934209346</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="Q2">
-        <v>0.3981853522753333</v>
+        <v>0.3644336569810001</v>
       </c>
       <c r="R2">
-        <v>2.389112113652</v>
+        <v>2.186601941886</v>
       </c>
       <c r="S2">
-        <v>0.000444727520330522</v>
+        <v>0.0005430238848823687</v>
       </c>
       <c r="T2">
-        <v>0.0002966887712089745</v>
+        <v>0.0003625603312406168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.3044395</v>
+        <v>0.1804155</v>
       </c>
       <c r="H3">
-        <v>0.6088789999999999</v>
+        <v>0.360831</v>
       </c>
       <c r="I3">
-        <v>0.001820844915993209</v>
+        <v>0.001449671343453619</v>
       </c>
       <c r="J3">
-        <v>0.001214730854269235</v>
+        <v>0.0009679009286790942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.047117</v>
+        <v>2.898691666666667</v>
       </c>
       <c r="N3">
-        <v>12.141351</v>
+        <v>8.696075</v>
       </c>
       <c r="O3">
-        <v>0.7557576065790654</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="P3">
-        <v>0.7557576065790653</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="Q3">
-        <v>1.2321022759215</v>
+        <v>0.5229689063875</v>
       </c>
       <c r="R3">
-        <v>7.392613655529</v>
+        <v>3.137813438325</v>
       </c>
       <c r="S3">
-        <v>0.001376117395662687</v>
+        <v>0.0007792491219712723</v>
       </c>
       <c r="T3">
-        <v>0.0009180420830602608</v>
+        <v>0.0005202806499792649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.03714233333333333</v>
+        <v>0.1804155</v>
       </c>
       <c r="H4">
-        <v>0.111427</v>
+        <v>0.360831</v>
       </c>
       <c r="I4">
-        <v>0.0002221473521606924</v>
+        <v>0.001449671343453619</v>
       </c>
       <c r="J4">
-        <v>0.0002223000216769803</v>
+        <v>0.0009679009286790942</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.307929333333333</v>
+        <v>0.473903</v>
       </c>
       <c r="N4">
-        <v>3.923788</v>
+        <v>1.421709</v>
       </c>
       <c r="O4">
-        <v>0.2442423934209346</v>
+        <v>0.08788084083697982</v>
       </c>
       <c r="P4">
-        <v>0.2442423934209346</v>
+        <v>0.08788084083697981</v>
       </c>
       <c r="Q4">
-        <v>0.04857954727511111</v>
+        <v>0.0854994466965</v>
       </c>
       <c r="R4">
-        <v>0.437215925476</v>
+        <v>0.512996680179</v>
       </c>
       <c r="S4">
-        <v>5.425780098385074E-05</v>
+        <v>0.0001273983365999782</v>
       </c>
       <c r="T4">
-        <v>5.429508935191131E-05</v>
+        <v>8.505994745921242E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.111427</v>
       </c>
       <c r="I5">
-        <v>0.0002221473521606924</v>
+        <v>0.0002984454011009889</v>
       </c>
       <c r="J5">
-        <v>0.0002223000216769803</v>
+        <v>0.0002988942102533469</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.047117</v>
+        <v>2.019968666666667</v>
       </c>
       <c r="N5">
-        <v>12.141351</v>
+        <v>6.059906</v>
       </c>
       <c r="O5">
-        <v>0.7557576065790654</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="P5">
-        <v>0.7557576065790653</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="Q5">
-        <v>0.150319368653</v>
+        <v>0.07502634954022222</v>
       </c>
       <c r="R5">
-        <v>1.352874317877</v>
+        <v>0.675237145862</v>
       </c>
       <c r="S5">
-        <v>0.0001678895511768417</v>
+        <v>0.0001117929121403791</v>
       </c>
       <c r="T5">
-        <v>0.000168004932325069</v>
+        <v>0.0001119610289280805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>57.75366533333332</v>
+        <v>0.03714233333333333</v>
       </c>
       <c r="H6">
-        <v>173.260996</v>
+        <v>0.111427</v>
       </c>
       <c r="I6">
-        <v>0.3454232052745234</v>
+        <v>0.0002984454011009889</v>
       </c>
       <c r="J6">
-        <v>0.3456605954263796</v>
+        <v>0.0002988942102533469</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.307929333333333</v>
+        <v>2.898691666666667</v>
       </c>
       <c r="N6">
-        <v>3.923788</v>
+        <v>8.696075</v>
       </c>
       <c r="O6">
-        <v>0.2442423934209346</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="P6">
-        <v>0.2442423934209346</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="Q6">
-        <v>75.53771299698309</v>
+        <v>0.1076641721138889</v>
       </c>
       <c r="R6">
-        <v>679.839416972848</v>
+        <v>0.968977549025</v>
       </c>
       <c r="S6">
-        <v>0.08436699039938038</v>
+        <v>0.0001604248561679252</v>
       </c>
       <c r="T6">
-        <v>0.08442497113824431</v>
+        <v>0.0001606661068068973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>57.75366533333332</v>
+        <v>0.03714233333333333</v>
       </c>
       <c r="H7">
-        <v>173.260996</v>
+        <v>0.111427</v>
       </c>
       <c r="I7">
-        <v>0.3454232052745234</v>
+        <v>0.0002984454011009889</v>
       </c>
       <c r="J7">
-        <v>0.3456605954263796</v>
+        <v>0.0002988942102533469</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>4.047117</v>
+        <v>0.473903</v>
       </c>
       <c r="N7">
-        <v>12.141351</v>
+        <v>1.421709</v>
       </c>
       <c r="O7">
-        <v>0.7557576065790654</v>
+        <v>0.08788084083697982</v>
       </c>
       <c r="P7">
-        <v>0.7557576065790653</v>
+        <v>0.08788084083697981</v>
       </c>
       <c r="Q7">
-        <v>233.735840782844</v>
+        <v>0.01760186319366667</v>
       </c>
       <c r="R7">
-        <v>2103.622567045596</v>
+        <v>0.158416768743</v>
       </c>
       <c r="S7">
-        <v>0.261056214875143</v>
+        <v>2.622763279268461E-05</v>
       </c>
       <c r="T7">
-        <v>0.2612356242881353</v>
+        <v>2.626707451836916E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.040039</v>
+        <v>53.85241266666666</v>
       </c>
       <c r="H8">
-        <v>0.080078</v>
+        <v>161.557238</v>
       </c>
       <c r="I8">
-        <v>0.0002394722419116183</v>
+        <v>0.4327139265678689</v>
       </c>
       <c r="J8">
-        <v>0.0001597578785738576</v>
+        <v>0.4333646518592622</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307929333333333</v>
+        <v>2.019968666666667</v>
       </c>
       <c r="N8">
-        <v>3.923788</v>
+        <v>6.059906</v>
       </c>
       <c r="O8">
-        <v>0.2442423934209346</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="P8">
-        <v>0.2442423934209346</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="Q8">
-        <v>0.05236818257733333</v>
+        <v>108.7801862110698</v>
       </c>
       <c r="R8">
-        <v>0.314209095464</v>
+        <v>979.0216758996279</v>
       </c>
       <c r="S8">
-        <v>5.84892735223707E-05</v>
+        <v>0.162087771486052</v>
       </c>
       <c r="T8">
-        <v>3.901964663073002E-05</v>
+        <v>0.1623315228558498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.040039</v>
+        <v>53.85241266666666</v>
       </c>
       <c r="H9">
-        <v>0.080078</v>
+        <v>161.557238</v>
       </c>
       <c r="I9">
-        <v>0.0002394722419116183</v>
+        <v>0.4327139265678689</v>
       </c>
       <c r="J9">
-        <v>0.0001597578785738576</v>
+        <v>0.4333646518592622</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.047117</v>
+        <v>2.898691666666667</v>
       </c>
       <c r="N9">
-        <v>12.141351</v>
+        <v>8.696075</v>
       </c>
       <c r="O9">
-        <v>0.7557576065790654</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="P9">
-        <v>0.7557576065790653</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="Q9">
-        <v>0.162042517563</v>
+        <v>156.1015398267611</v>
       </c>
       <c r="R9">
-        <v>0.972255105378</v>
+        <v>1404.91385844085</v>
       </c>
       <c r="S9">
-        <v>0.0001809829683892476</v>
+        <v>0.2325988913731615</v>
       </c>
       <c r="T9">
-        <v>0.0001207382319431276</v>
+        <v>0.2329486790089953</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.852431</v>
+        <v>53.85241266666666</v>
       </c>
       <c r="H10">
-        <v>2.557293</v>
+        <v>161.557238</v>
       </c>
       <c r="I10">
-        <v>0.005098368157170826</v>
+        <v>0.4327139265678689</v>
       </c>
       <c r="J10">
-        <v>0.005101871981964785</v>
+        <v>0.4333646518592622</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.307929333333333</v>
+        <v>0.473903</v>
       </c>
       <c r="N10">
-        <v>3.923788</v>
+        <v>1.421709</v>
       </c>
       <c r="O10">
-        <v>0.2442423934209346</v>
+        <v>0.08788084083697982</v>
       </c>
       <c r="P10">
-        <v>0.2442423934209346</v>
+        <v>0.08788084083697981</v>
       </c>
       <c r="Q10">
-        <v>1.114919509542667</v>
+        <v>25.52081991997133</v>
       </c>
       <c r="R10">
-        <v>10.034275585884</v>
+        <v>229.687379279742</v>
       </c>
       <c r="S10">
-        <v>0.001245237641248482</v>
+        <v>0.03802726370865546</v>
       </c>
       <c r="T10">
-        <v>0.001246093423802286</v>
+        <v>0.03808444999441698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.852431</v>
+        <v>0.380206</v>
       </c>
       <c r="H11">
-        <v>2.557293</v>
+        <v>0.760412</v>
       </c>
       <c r="I11">
-        <v>0.005098368157170826</v>
+        <v>0.003055024334434274</v>
       </c>
       <c r="J11">
-        <v>0.005101871981964785</v>
+        <v>0.002039745700837033</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.047117</v>
+        <v>2.019968666666667</v>
       </c>
       <c r="N11">
-        <v>12.141351</v>
+        <v>6.059906</v>
       </c>
       <c r="O11">
-        <v>0.7557576065790654</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="P11">
-        <v>0.7557576065790653</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="Q11">
-        <v>3.449887991427</v>
+        <v>0.7680042068786667</v>
       </c>
       <c r="R11">
-        <v>31.048991922843</v>
+        <v>4.608025241271999</v>
       </c>
       <c r="S11">
-        <v>0.003853130515922344</v>
+        <v>0.001144363644895177</v>
       </c>
       <c r="T11">
-        <v>0.003855778558162498</v>
+        <v>0.0007640563770832881</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>108.209114</v>
+        <v>0.380206</v>
       </c>
       <c r="H12">
-        <v>324.627342</v>
+        <v>0.760412</v>
       </c>
       <c r="I12">
-        <v>0.6471959620582403</v>
+        <v>0.003055024334434274</v>
       </c>
       <c r="J12">
-        <v>0.6476407438371357</v>
+        <v>0.002039745700837033</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.307929333333333</v>
+        <v>2.898691666666667</v>
       </c>
       <c r="N12">
-        <v>3.923788</v>
+        <v>8.696075</v>
       </c>
       <c r="O12">
-        <v>0.2442423934209346</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="P12">
-        <v>0.2442423934209346</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="Q12">
-        <v>141.5298743346107</v>
+        <v>1.102099963816667</v>
       </c>
       <c r="R12">
-        <v>1273.768869011496</v>
+        <v>6.6125997829</v>
       </c>
       <c r="S12">
-        <v>0.158072690785469</v>
+        <v>0.001642182582251578</v>
       </c>
       <c r="T12">
-        <v>0.1581813253516964</v>
+        <v>0.001096434756470572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>108.209114</v>
+        <v>0.380206</v>
       </c>
       <c r="H13">
-        <v>324.627342</v>
+        <v>0.760412</v>
       </c>
       <c r="I13">
-        <v>0.6471959620582403</v>
+        <v>0.003055024334434274</v>
       </c>
       <c r="J13">
-        <v>0.6476407438371357</v>
+        <v>0.002039745700837033</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>4.047117</v>
+        <v>0.473903</v>
       </c>
       <c r="N13">
-        <v>12.141351</v>
+        <v>1.421709</v>
       </c>
       <c r="O13">
-        <v>0.7557576065790654</v>
+        <v>0.08788084083697982</v>
       </c>
       <c r="P13">
-        <v>0.7557576065790653</v>
+        <v>0.08788084083697981</v>
       </c>
       <c r="Q13">
-        <v>437.934944824338</v>
+        <v>0.180180764018</v>
       </c>
       <c r="R13">
-        <v>3941.414503419042</v>
+        <v>1.081084584108</v>
       </c>
       <c r="S13">
-        <v>0.4891232712727713</v>
+        <v>0.0002684781072875186</v>
       </c>
       <c r="T13">
-        <v>0.4894594184854392</v>
+        <v>0.0001792545672831731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>14.52148466666667</v>
+      </c>
+      <c r="H14">
+        <v>43.564454</v>
+      </c>
+      <c r="I14">
+        <v>0.116682769416529</v>
+      </c>
+      <c r="J14">
+        <v>0.1168582396856082</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.019968666666667</v>
+      </c>
+      <c r="N14">
+        <v>6.059906</v>
+      </c>
+      <c r="O14">
+        <v>0.3745841340760022</v>
+      </c>
+      <c r="P14">
+        <v>0.3745841340760022</v>
+      </c>
+      <c r="Q14">
+        <v>29.33294402014711</v>
+      </c>
+      <c r="R14">
+        <v>263.996496181324</v>
+      </c>
+      <c r="S14">
+        <v>0.04370751414348036</v>
+      </c>
+      <c r="T14">
+        <v>0.04377324252227945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14.52148466666667</v>
+      </c>
+      <c r="H15">
+        <v>43.564454</v>
+      </c>
+      <c r="I15">
+        <v>0.116682769416529</v>
+      </c>
+      <c r="J15">
+        <v>0.1168582396856082</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.898691666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.696075</v>
+      </c>
+      <c r="O15">
+        <v>0.537535025087018</v>
+      </c>
+      <c r="P15">
+        <v>0.537535025087018</v>
+      </c>
+      <c r="Q15">
+        <v>42.09330659089444</v>
+      </c>
+      <c r="R15">
+        <v>378.83975931805</v>
+      </c>
+      <c r="S15">
+        <v>0.06272107538553667</v>
+      </c>
+      <c r="T15">
+        <v>0.06281539680102814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14.52148466666667</v>
+      </c>
+      <c r="H16">
+        <v>43.564454</v>
+      </c>
+      <c r="I16">
+        <v>0.116682769416529</v>
+      </c>
+      <c r="J16">
+        <v>0.1168582396856082</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.473903</v>
+      </c>
+      <c r="N16">
+        <v>1.421709</v>
+      </c>
+      <c r="O16">
+        <v>0.08788084083697982</v>
+      </c>
+      <c r="P16">
+        <v>0.08788084083697981</v>
+      </c>
+      <c r="Q16">
+        <v>6.881775147987334</v>
+      </c>
+      <c r="R16">
+        <v>61.935976331886</v>
+      </c>
+      <c r="S16">
+        <v>0.01025417988751201</v>
+      </c>
+      <c r="T16">
+        <v>0.01026960036230057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>55.48103</v>
+      </c>
+      <c r="H17">
+        <v>166.44309</v>
+      </c>
+      <c r="I17">
+        <v>0.4458001629366132</v>
+      </c>
+      <c r="J17">
+        <v>0.4464705676153602</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.019968666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.059906</v>
+      </c>
+      <c r="O17">
+        <v>0.3745841340760022</v>
+      </c>
+      <c r="P17">
+        <v>0.3745841340760022</v>
+      </c>
+      <c r="Q17">
+        <v>112.0699421943933</v>
+      </c>
+      <c r="R17">
+        <v>1008.62947974954</v>
+      </c>
+      <c r="S17">
+        <v>0.166989668004552</v>
+      </c>
+      <c r="T17">
+        <v>0.1672407909606209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>55.48103</v>
+      </c>
+      <c r="H18">
+        <v>166.44309</v>
+      </c>
+      <c r="I18">
+        <v>0.4458001629366132</v>
+      </c>
+      <c r="J18">
+        <v>0.4464705676153602</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.898691666666667</v>
+      </c>
+      <c r="N18">
+        <v>8.696075</v>
+      </c>
+      <c r="O18">
+        <v>0.537535025087018</v>
+      </c>
+      <c r="P18">
+        <v>0.537535025087018</v>
+      </c>
+      <c r="Q18">
+        <v>160.8223993190833</v>
+      </c>
+      <c r="R18">
+        <v>1447.40159387175</v>
+      </c>
+      <c r="S18">
+        <v>0.2396332017679291</v>
+      </c>
+      <c r="T18">
+        <v>0.2399935677637378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>55.48103</v>
+      </c>
+      <c r="H19">
+        <v>166.44309</v>
+      </c>
+      <c r="I19">
+        <v>0.4458001629366132</v>
+      </c>
+      <c r="J19">
+        <v>0.4464705676153602</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.473903</v>
+      </c>
+      <c r="N19">
+        <v>1.421709</v>
+      </c>
+      <c r="O19">
+        <v>0.08788084083697982</v>
+      </c>
+      <c r="P19">
+        <v>0.08788084083697981</v>
+      </c>
+      <c r="Q19">
+        <v>26.29262656009</v>
+      </c>
+      <c r="R19">
+        <v>236.63363904081</v>
+      </c>
+      <c r="S19">
+        <v>0.03917729316413218</v>
+      </c>
+      <c r="T19">
+        <v>0.0392362088910015</v>
       </c>
     </row>
   </sheetData>
